--- a/data/trans_camb/P43E_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P43E_R-Clase-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8056913711853062</v>
+        <v>-0.8173294788766136</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.30419381537132</v>
+        <v>-17.13577953516442</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.78398621420526</v>
+        <v>16.6564147366598</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.004560319581579</v>
+        <v>0.8883757397353198</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01094137799034822</v>
+        <v>-0.01087865101751877</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2633131387741784</v>
+        <v>-0.2538357435879224</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3022628509183222</v>
+        <v>0.2975665315978154</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.01841710657803633</v>
+        <v>0.01748965892670068</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>7.867058567913254</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-2.215043889157475</v>
+        <v>-2.215043889157464</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2449622796313019</v>
+        <v>-0.5496801023299704</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.498642338417</v>
+        <v>-10.05279630232376</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.35642723373898</v>
+        <v>16.2597883581219</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.832949073985631</v>
+        <v>7.182578492776989</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.1253251972478353</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.03528648095407618</v>
+        <v>-0.035286480954076</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.002770537384404497</v>
+        <v>-0.007902317411878627</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1566059719159491</v>
+        <v>-0.1544721294716183</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2866529321267827</v>
+        <v>0.2839193093880163</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1181529289938578</v>
+        <v>0.1224225454576139</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.393600713078822</v>
+        <v>4.521788754025587</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.53563399419908</v>
+        <v>-13.21929923524106</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.22368566286021</v>
+        <v>23.69435249422161</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.63417942213489</v>
+        <v>8.611423227923092</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06208497358470599</v>
+        <v>0.0607508307146724</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1690960514924444</v>
+        <v>-0.1780670098212641</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3552002977091721</v>
+        <v>0.3564095383361345</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1433195748878323</v>
+        <v>0.1239863961942546</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>5.108509845108622</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.61967898117349</v>
+        <v>2.619678981173479</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2945913515968264</v>
+        <v>-0.01712309779496162</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.348920317544452</v>
+        <v>-3.071047452317535</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.52749769274265</v>
+        <v>10.06880129759706</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.828946825919872</v>
+        <v>7.882372904745723</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>0.06418578077105365</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.03291490980234443</v>
+        <v>0.03291490980234429</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.004317618961200573</v>
+        <v>-0.0002333361605001096</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02865439624641659</v>
+        <v>-0.03693361639692754</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1380890682870715</v>
+        <v>0.1318574976456839</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1030343935446885</v>
+        <v>0.1008256524560084</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>9.228771142624892</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>5.469095952141023</v>
+        <v>5.469095952141001</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.258261140583824</v>
+        <v>5.312006464471953</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.065748635247175</v>
+        <v>1.379302725815853</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.6973134290227</v>
+        <v>13.2736736692349</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.784363159718584</v>
+        <v>10.31142521761259</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>0.108602331141859</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.06435922621352207</v>
+        <v>0.0643592262135218</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.06081920291378774</v>
+        <v>0.06132206583434976</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.01220414112670268</v>
+        <v>0.01634901351778529</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.16805699573708</v>
+        <v>0.1633611627515009</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1195472293277801</v>
+        <v>0.1264232181298797</v>
       </c>
     </row>
     <row r="34">
@@ -1012,7 +1012,7 @@
         <v>4.416351299864973</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>3.281893104954492</v>
+        <v>3.281893104954481</v>
       </c>
     </row>
     <row r="35">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.2128250365056326</v>
+        <v>-0.02095727341148071</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.022355788696066</v>
+        <v>-1.950672948439765</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.231283676758904</v>
+        <v>8.798818627799962</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.06144445504939</v>
+        <v>7.906620727337034</v>
       </c>
     </row>
     <row r="37">
@@ -1054,7 +1054,7 @@
         <v>0.05300056297808461</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.0393859478981666</v>
+        <v>0.03938594789816647</v>
       </c>
     </row>
     <row r="38">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.001561529985496556</v>
+        <v>-0.0002541574361324769</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.01241525476332937</v>
+        <v>-0.02206126615304631</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1154527355183096</v>
+        <v>0.1084412921454359</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.09822702088497526</v>
+        <v>0.0979147235291085</v>
       </c>
     </row>
     <row r="40">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.93363602032547</v>
+        <v>3.855050253622428</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.612693717494814</v>
+        <v>-3.653182068794959</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.004634619703261</v>
+        <v>9.09458541206169</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.845083248797518</v>
+        <v>1.485317050966864</v>
       </c>
     </row>
     <row r="43">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.05041326681503158</v>
+        <v>0.04903631636721056</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.04629243169689772</v>
+        <v>-0.0467813548328808</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1189893892367142</v>
+        <v>0.1202348576503922</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.02390614331307319</v>
+        <v>0.01936111174909178</v>
       </c>
     </row>
     <row r="46">
